--- a/src/main/resources/TestData.xlsx
+++ b/src/main/resources/TestData.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\haris\OneDrive\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Suresh\com.dtcc\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE3BFB76-7625-41B0-935B-090481A735FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE66F9EE-B73A-4AF4-849A-4AA00FC6474A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3200F3BE-C441-47CF-AEFA-5F873D965A0C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{3200F3BE-C441-47CF-AEFA-5F873D965A0C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,21 +25,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
-  <si>
-    <t>Movies</t>
-  </si>
-  <si>
-    <t>Flipkart</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>https:.//www.tollywood movies 2024</t>
   </si>
   <si>
     <t>https://flipkart.com/</t>
+  </si>
+  <si>
+    <t>MapValue-1</t>
+  </si>
+  <si>
+    <t>URL</t>
   </si>
 </sst>
 </file>
@@ -64,7 +61,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,8 +95,8 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -414,43 +411,39 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB692E5B-C80A-4506-B7F0-11191B6E2D6E}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13" customWidth="1"/>
-    <col min="2" max="2" width="10.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" customWidth="1"/>
-    <col min="5" max="5" width="25.140625" customWidth="1"/>
-    <col min="6" max="6" width="36.85546875" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
-    <col min="8" max="8" width="35.7109375" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
-    <col min="11" max="11" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="35.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="36.85546875" customWidth="1"/>
+    <col min="6" max="6" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="1" t="s">
+    <row r="1" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
       </c>
     </row>
   </sheetData>
